--- a/prep_and_checklists/Selendy Gay  /PREPLIST_Selendy Gay  _11-24-2025_0.xlsx
+++ b/prep_and_checklists/Selendy Gay  /PREPLIST_Selendy Gay  _11-24-2025_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Selendy Gay  /"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB5B012-3632-3343-A854-CB653EE3951C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C1EB8C-7284-7F45-99BA-1C4058C02993}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1020" windowWidth="30240" windowHeight="17720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="271">
   <si>
     <t xml:space="preserve">Selendy Gay  , Guests: 115   , 6:00 PM - 10:00 PM   ,Wednesday, December 3, 2025  </t>
   </si>
@@ -32,18 +32,9 @@
     <t>Raw bar</t>
   </si>
   <si>
-    <t xml:space="preserve"> farmer's green market</t>
-  </si>
-  <si>
     <t>Canape</t>
   </si>
   <si>
-    <t>Sides</t>
-  </si>
-  <si>
-    <t>Timing TBD</t>
-  </si>
-  <si>
     <t>Oysters</t>
   </si>
   <si>
@@ -59,9 +50,6 @@
     <t>brunoise shallots</t>
   </si>
   <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
     <t>cut / fry lavash strips</t>
   </si>
   <si>
@@ -89,9 +77,6 @@
     <t>shucked oysters</t>
   </si>
   <si>
-    <t>picked chervil</t>
-  </si>
-  <si>
     <t>mandarin agrumato</t>
   </si>
   <si>
@@ -176,9 +161,6 @@
     <t>make / pull lemon vinaigrette</t>
   </si>
   <si>
-    <t>brunoise daikon</t>
-  </si>
-  <si>
     <t>maldon</t>
   </si>
   <si>
@@ -284,15 +266,6 @@
     <t>make / pull ginger scallion relish</t>
   </si>
   <si>
-    <t>slice garlic</t>
-  </si>
-  <si>
-    <t>cut / roast butternut squash wedges</t>
-  </si>
-  <si>
-    <t>wash / cut   Swiss chard</t>
-  </si>
-  <si>
     <t>cut / roast carrots</t>
   </si>
   <si>
@@ -308,18 +281,12 @@
     <t>clean / grill fish</t>
   </si>
   <si>
-    <t>shaved pear</t>
-  </si>
-  <si>
     <t>green olive gremolata</t>
   </si>
   <si>
     <t>sourdough croutons</t>
   </si>
   <si>
-    <t>grilled lemon halves</t>
-  </si>
-  <si>
     <t>toasted walnuts</t>
   </si>
   <si>
@@ -335,9 +302,6 @@
     <t>cut / roast sweet potato wedges</t>
   </si>
   <si>
-    <t>kit-out / make chimichurri</t>
-  </si>
-  <si>
     <t>pick pomegranates</t>
   </si>
   <si>
@@ -699,6 +663,177 @@
   </si>
   <si>
     <t>Goat cheese</t>
+  </si>
+  <si>
+    <t>chimichurri base</t>
+  </si>
+  <si>
+    <t>chimichurri herbs</t>
+  </si>
+  <si>
+    <t>6-7PM PASSED CANAPÉS</t>
+  </si>
+  <si>
+    <t>6:30-8:30PM RAW BAR</t>
+  </si>
+  <si>
+    <t>7-9PM FARMERS GREEN MARKET</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Farmer's Green Market</t>
+  </si>
+  <si>
+    <t>3 packs</t>
+  </si>
+  <si>
+    <t>1 pint</t>
+  </si>
+  <si>
+    <t>1 x recipe, * pull fava puree from reach-in freezer</t>
+  </si>
+  <si>
+    <t>1 cup</t>
+  </si>
+  <si>
+    <t>2lbs</t>
+  </si>
+  <si>
+    <t>1 x recipe</t>
+  </si>
+  <si>
+    <t>1 quart, pull from reach-in freezer</t>
+  </si>
+  <si>
+    <t>1 x squeeze bottle</t>
+  </si>
+  <si>
+    <t>1 x recipe, in a piping bag</t>
+  </si>
+  <si>
+    <t>120 pcs, see pastry</t>
+  </si>
+  <si>
+    <t>dijonaise</t>
+  </si>
+  <si>
+    <t>1 pint, in a piping bag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 pcs </t>
+  </si>
+  <si>
+    <t>2 pcs, pull from reach-in freezer</t>
+  </si>
+  <si>
+    <t>1 cup, pull from reach-in freezer</t>
+  </si>
+  <si>
+    <t>1 pint, see AM Prep</t>
+  </si>
+  <si>
+    <t>200 pcs, see AM Prep</t>
+  </si>
+  <si>
+    <t>2 cases, see AM Prep</t>
+  </si>
+  <si>
+    <t>20lbs</t>
+  </si>
+  <si>
+    <t>1 quart</t>
+  </si>
+  <si>
+    <t>6 quarts</t>
+  </si>
+  <si>
+    <t>2 quarts, pull from AM Prep</t>
+  </si>
+  <si>
+    <t>2 x sides</t>
+  </si>
+  <si>
+    <t>1 x bottle</t>
+  </si>
+  <si>
+    <t>2 quarts</t>
+  </si>
+  <si>
+    <t>2 quarts, transfer some into a squeeze bottle</t>
+  </si>
+  <si>
+    <t>5 lbs</t>
+  </si>
+  <si>
+    <t>picked delfino</t>
+  </si>
+  <si>
+    <t>1x piping bag, see AM Prep</t>
+  </si>
+  <si>
+    <t>2 cases, walk-in freezer</t>
+  </si>
+  <si>
+    <t>3lbs</t>
+  </si>
+  <si>
+    <t>4 cases</t>
+  </si>
+  <si>
+    <t>roat/ cut beets</t>
+  </si>
+  <si>
+    <t>cut / roast koginut squash wedges</t>
+  </si>
+  <si>
+    <t>roasted pear</t>
+  </si>
+  <si>
+    <t>8 each</t>
+  </si>
+  <si>
+    <t>1x sourdough boule</t>
+  </si>
+  <si>
+    <t>10lbs</t>
+  </si>
+  <si>
+    <t>10 lbs</t>
+  </si>
+  <si>
+    <t>1 x to-go box</t>
+  </si>
+  <si>
+    <t>12 birds, see AM Prep</t>
+  </si>
+  <si>
+    <t>2 pints</t>
+  </si>
+  <si>
+    <t>25 branzino fillets</t>
+  </si>
+  <si>
+    <t>15 packs</t>
+  </si>
+  <si>
+    <t>1 pint each chopped parsley and cilantro</t>
+  </si>
+  <si>
+    <t>4 cases, see AM Prep</t>
+  </si>
+  <si>
+    <t>2 quarts, see AM Prep</t>
+  </si>
+  <si>
+    <t>1 quart, see AM Prep</t>
+  </si>
+  <si>
+    <t>4 quarts</t>
+  </si>
+  <si>
+    <t>3 DZ, 108 pcs</t>
+  </si>
+  <si>
+    <t>75 pcs, fried and cut in half</t>
   </si>
 </sst>
 </file>
@@ -815,7 +950,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -837,6 +972,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1140,17 +1278,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H53"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43.83203125" customWidth="1"/>
-    <col min="4" max="4" width="33.6640625" customWidth="1"/>
-    <col min="7" max="7" width="34.83203125" customWidth="1"/>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="47" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
@@ -1165,254 +1311,254 @@
     </row>
     <row r="3" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="8"/>
       <c r="D3" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="8"/>
       <c r="G3" s="9" t="s">
-        <v>4</v>
+        <v>219</v>
       </c>
       <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>6</v>
+        <v>216</v>
       </c>
       <c r="B4" s="8"/>
       <c r="D4" s="7" t="s">
-        <v>6</v>
+        <v>217</v>
       </c>
       <c r="E4" s="8"/>
       <c r="G4" s="7" t="s">
-        <v>6</v>
+        <v>218</v>
       </c>
       <c r="H4" s="8"/>
     </row>
     <row r="5" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>220</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>12</v>
+        <v>236</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>13</v>
+        <v>72</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>12</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
+      <c r="B8" s="10" t="s">
+        <v>222</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
+      <c r="E9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>12</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="G10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>12</v>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>8</v>
+      <c r="E12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>269</v>
+      </c>
       <c r="D13" s="3" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>12</v>
+        <v>238</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>31</v>
+        <v>253</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>225</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="D15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="D16" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
+        <v>239</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>226</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>8</v>
+        <v>240</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -1420,522 +1566,500 @@
         <v>43</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>12</v>
+        <v>270</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>12</v>
+        <v>241</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>47</v>
+        <v>254</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>12</v>
+        <v>227</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>12</v>
+        <v>223</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>12</v>
+        <v>256</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>12</v>
+        <v>223</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="D22" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>105</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>12</v>
+        <v>221</v>
       </c>
       <c r="G23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="D24" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="3" t="s">
+      <c r="B26" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A27" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="B28" s="3" t="s">
-        <v>12</v>
+        <v>229</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="D30" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>12</v>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="D30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>8</v>
+      <c r="H32" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+        <v>225</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>56</v>
+        <v>230</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G36" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="3" t="s">
+      <c r="H39" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="D37" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" s="8"/>
-      <c r="D38" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B39" s="8"/>
-      <c r="G39" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>8</v>
+      <c r="B40" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>12</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>12</v>
+        <v>228</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>12</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="19" x14ac:dyDescent="0.2">
-      <c r="D45" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>8</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="G43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G44" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="G45" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="D46" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="D47" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="49" spans="4:5" ht="19" x14ac:dyDescent="0.2">
-      <c r="D49" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="4:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D50" s="3" t="s">
+      <c r="G46" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="G48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="50" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G50" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="4:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D51" s="3" t="s">
+      <c r="H50" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="51" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G51" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="7:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="G52" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="4:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="4:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="D53" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>12</v>
+      <c r="H52" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="6">
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="G3:H3"/>
     <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A3:B3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup scale="48" orientation="landscape"/>
 </worksheet>
 </file>
 
@@ -1949,7 +2073,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
@@ -1959,898 +2083,899 @@
     </row>
     <row r="3" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="6" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="6" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="6" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="6" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="6" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B91" s="6"/>
       <c r="C91" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B92" s="6"/>
       <c r="C92" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B93" s="6"/>
       <c r="C93" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B94" s="6"/>
       <c r="C94" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B95" s="6"/>
       <c r="C95" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B96" s="6"/>
       <c r="C96" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B97" s="6"/>
       <c r="C97" s="6" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B98" s="6"/>
       <c r="C98" s="6" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B99" s="6"/>
       <c r="C99" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B100" s="6"/>
       <c r="C100" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B101" s="6"/>
       <c r="C101" s="6" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>